--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Algoritmo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Algoritmo\Cevallos_Ejercicio1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F1CEB-26B6-4A6E-8C02-B0895D216265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5A7E8-CF7E-44C5-A1B1-B8BA5280B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Apellidos</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Josue</t>
+  </si>
+  <si>
+    <t>Jamileth Cevallos</t>
   </si>
 </sst>
 </file>
@@ -388,13 +391,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:E8"/>
+  <dimension ref="D4:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
@@ -436,6 +442,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
